--- a/FPH_Linear/174-FPH-Relatório-Reg-D-P.AFONSO 123.xlsx
+++ b/FPH_Linear/174-FPH-Relatório-Reg-D-P.AFONSO 123.xlsx
@@ -945,22 +945,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7567603792385571</v>
+        <v>0.7579801771831554</v>
       </c>
       <c r="D2">
         <v>-0</v>
       </c>
       <c r="E2">
-        <v>-0.02688230250134589</v>
+        <v>-0.03678088220224406</v>
       </c>
       <c r="F2">
-        <v>58.53677173640604</v>
+        <v>57.90457457653145</v>
       </c>
       <c r="G2">
-        <v>0.2628042401424686</v>
+        <v>0.2598084161604679</v>
       </c>
       <c r="H2">
-        <v>1.651276165354832</v>
+        <v>1.340149370629326</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7755175584983666</v>
+        <v>0.776534778898909</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.02953398706932492</v>
+        <v>-0.06133084268966124</v>
       </c>
       <c r="F3">
-        <v>31.80779129117759</v>
+        <v>31.46426713158259</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -991,16 +991,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7968420112583289</v>
+        <v>0.7976289275599124</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.03556322222467137</v>
+        <v>-0.1171510132410634</v>
       </c>
       <c r="F4">
-        <v>11.54956116921332</v>
+        <v>11.42482590362932</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1011,13 +1011,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8211568768777254</v>
+        <v>0.8216811926201846</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04587533041146907</v>
+        <v>-0.212623096001196</v>
       </c>
       <c r="F5">
         <v>0</v>
